--- a/data/SM_midterm.xlsx
+++ b/data/SM_midterm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32200" yWindow="3580" windowWidth="27780" windowHeight="18880" tabRatio="500"/>
+    <workbookView xWindow="-33600" yWindow="3140" windowWidth="27780" windowHeight="18880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
